--- a/doc/Everyday task/Task list.xlsx
+++ b/doc/Everyday task/Task list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>成员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,58 @@
   </si>
   <si>
     <t>完成《项目开发计划》第一版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_PM_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成《项目需求说明书》第一版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_HD_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成《API文档》完全版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_HD_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导安装idea+spring+tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成了文件QZ_HD_002，确定idea、spring、tomcat版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成Spring的登陆功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用MVC的开发模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43299</v>
       </c>
@@ -1263,6 +1315,104 @@
       </c>
       <c r="G17" s="8" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>43299</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43301</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>43300</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43300</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43300</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="6">
+        <v>43300</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43300</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="6">
+        <v>43300</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Everyday task/Task list.xlsx
+++ b/doc/Everyday task/Task list.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA49330-531C-4BCD-8482-12871F9AF2A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>成员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,19 +190,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在讨论组中展示效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_TL_QD_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>QZ_TL_QD_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实现Echarts动态效果以及交互效果                                                 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文档上传到Github的Master线，文档编号QZ_TL_QD_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_TL_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本地配置好PostgerSQL、navicat数据库访问软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgerSQL 版本10.4.1X64、navicat任意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_TL_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会使用Xshell和Xftd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现基本的Echarts操作，绘制折线、饼图等14种基本图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实现Echarts异步加载Json文件                                                    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缪金宏、王力立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练掌握Github对全组的提交进行管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CM_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CM_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缪金宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在服务器上配置完成PostgreSQL数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对课程中所提出的技术进行温习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CL_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CM_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自己的navicat在dotalab中创建一个表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用组内版本，服务器地址：www.micahmiao.cn       ipv4地址：118.126.114.158  端口号:22                          使用密钥登陆，tomcat文件在/usr/local中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：118.126.114.158，端口：5432，默认库不变，账户：micah、密码：miao123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_PM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.5h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在讨论组中展示效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_TL_QD_004</t>
+    <t>完成《项目开发计划》第一版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_PM_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成《项目需求说明书》第一版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_HD_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成《API文档》完全版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_HD_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导安装idea+spring+tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,206 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_TL_QD_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">实现Echarts动态效果以及交互效果                                                 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将文档上传到Github的Master线，文档编号QZ_TL_QD_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_TL_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本地配置好PostgerSQL、navicat数据库访问软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostgerSQL 版本10.4.1X64、navicat任意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_TL_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学会使用Xshell和Xftd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现基本的Echarts操作，绘制折线、饼图等14种基本图形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">实现Echarts异步加载Json文件                                                    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缪金宏、王力立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练掌握Github对全组的提交进行管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CM_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CM_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缪金宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在服务器上配置完成PostgreSQL数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对课程中所提出的技术进行温习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CL_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CM_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用自己的navicat在dotalab中创建一个表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用组内版本，服务器地址：www.micahmiao.cn       ipv4地址：118.126.114.158  端口号:22                          使用密钥登陆，tomcat文件在/usr/local中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址：118.126.114.158，端口：5432，默认库不变，账户：micah、密码：miao123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_PM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成《项目开发计划》第一版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_PM_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成《项目需求说明书》第一版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_HD_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成《API文档》完全版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_HD_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王力立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指导安装idea+spring+tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>形成了文件QZ_HD_002，确定idea、spring、tomcat版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,13 +411,33 @@
   </si>
   <si>
     <t>采用MVC的开发模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_TL_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装Pgadmin4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Pgadmin访问数据库、参考blog：https://blog.csdn.net/mashuai720/article/details/79413571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_HD_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -834,11 +847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -964,14 +977,14 @@
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
@@ -993,12 +1006,12 @@
         <v>35</v>
       </c>
       <c r="D5" s="6">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -1024,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="6">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>36</v>
@@ -1052,7 +1065,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6">
         <v>43299</v>
@@ -1060,14 +1073,14 @@
       <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>42</v>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
@@ -1083,10 +1096,10 @@
         <v>43299</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="6">
         <v>43299</v>
@@ -1094,11 +1107,11 @@
       <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>47</v>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1106,10 +1119,10 @@
         <v>43299</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6">
         <v>43299</v>
@@ -1118,10 +1131,10 @@
         <v>41</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1129,22 +1142,22 @@
         <v>43299</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1152,22 +1165,22 @@
         <v>43299</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1175,25 +1188,25 @@
         <v>43299</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
@@ -1201,25 +1214,25 @@
         <v>43299</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1227,22 +1240,22 @@
         <v>43299</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1250,22 +1263,22 @@
         <v>43299</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="6">
         <v>43299</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
@@ -1273,25 +1286,25 @@
         <v>43299</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6">
         <v>43299</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,10 +1312,10 @@
         <v>43299</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D17" s="6">
         <v>43299</v>
@@ -1314,7 +1327,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1322,10 +1335,10 @@
         <v>43299</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D18" s="6">
         <v>43301</v>
@@ -1337,7 +1350,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,10 +1358,10 @@
         <v>43300</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="6">
         <v>43300</v>
@@ -1360,7 +1373,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1368,25 +1381,25 @@
         <v>43300</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="6">
         <v>43300</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,29 +1407,56 @@
         <v>43300</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="6">
         <v>43300</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43300</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="C22" s="3" t="s">
         <v>99</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Everyday task/Task list.xlsx
+++ b/doc/Everyday task/Task list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA49330-531C-4BCD-8482-12871F9AF2A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A8CD3-9E17-4920-AA4F-F4F79E820203}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="117">
   <si>
     <t>成员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,27 +206,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>QZ_TL_QD_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实现Echarts动态效果以及交互效果                                                 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文档上传到Github的Master线，文档编号QZ_TL_QD_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_TL_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QZ_TL_QD_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">实现Echarts动态效果以及交互效果                                                 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将文档上传到Github的Master线，文档编号QZ_TL_QD_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_TL_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端组</t>
+    <t>在本地配置好PostgerSQL、navicat数据库访问软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgerSQL 版本10.4.1X64、navicat任意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_TL_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会使用Xshell和Xftd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现基本的Echarts操作，绘制折线、饼图等14种基本图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实现Echarts异步加载Json文件                                                    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缪金宏、王力立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练掌握Github对全组的提交进行管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CM_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CM_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缪金宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在服务器上配置完成PostgreSQL数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,11 +322,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在本地配置好PostgerSQL、navicat数据库访问软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostgerSQL 版本10.4.1X64、navicat任意</t>
+    <t>对课程中所提出的技术进行温习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CL_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CM_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自己的navicat在dotalab中创建一个表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用组内版本，服务器地址：www.micahmiao.cn       ipv4地址：118.126.114.158  端口号:22                          使用密钥登陆，tomcat文件在/usr/local中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：118.126.114.158，端口：5432，默认库不变，账户：micah、密码：miao123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_PM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成《项目开发计划》第一版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_PM_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成《项目需求说明书》第一版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_HD_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成《API文档》完全版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_HD_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导安装idea+spring+tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,166 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QZ_TL_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学会使用Xshell和Xftd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现基本的Echarts操作，绘制折线、饼图等14种基本图形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">实现Echarts异步加载Json文件                                                    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缪金宏、王力立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练掌握Github对全组的提交进行管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CM_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CM_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缪金宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在服务器上配置完成PostgreSQL数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对课程中所提出的技术进行温习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CL_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_CM_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用自己的navicat在dotalab中创建一个表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用组内版本，服务器地址：www.micahmiao.cn       ipv4地址：118.126.114.158  端口号:22                          使用密钥登陆，tomcat文件在/usr/local中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址：118.126.114.158，端口：5432，默认库不变，账户：micah、密码：miao123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_PM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成《项目开发计划》第一版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_PM_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成《项目需求说明书》第一版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_HD_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成《API文档》完全版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QZ_HD_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王力立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指导安装idea+spring+tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形成了文件QZ_HD_002，确定idea、spring、tomcat版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成Spring的登陆功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,6 +423,70 @@
   </si>
   <si>
     <t>QZ_HD_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成了指导文档 QZ_TL_QD_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成效果文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成指导文档QZ_TL_QD_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_CL_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成学习文档 QZ_CL_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成学习文档 QZ_CL_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成了文件 QZ_HD_002，确定idea、spring、tomcat版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_QD_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉vue.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成vue学习文档（一份）文件标号 QZ_QD_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成了指导文档 QZ_TL_QD_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ_QD_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李心怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉Element-UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成学习文档，文件标号 QZ_QD_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -984,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
@@ -1017,6 +1073,9 @@
       <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="H5" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1048,6 +1107,9 @@
       <c r="G6" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="H6" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1139,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>43</v>
@@ -1111,7 +1173,10 @@
         <v>22</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1119,7 +1184,7 @@
         <v>43299</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>45</v>
@@ -1130,11 +1195,14 @@
       <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>46</v>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1142,22 +1210,22 @@
         <v>43299</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1165,22 +1233,22 @@
         <v>43299</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1188,25 +1256,25 @@
         <v>43299</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
@@ -1214,25 +1282,25 @@
         <v>43299</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="H13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1240,22 +1308,22 @@
         <v>43299</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="6">
-        <v>43299</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1263,22 +1331,25 @@
         <v>43299</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="6">
         <v>43299</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>76</v>
+      <c r="H15" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
@@ -1286,25 +1357,25 @@
         <v>43299</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6">
         <v>43299</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1312,10 +1383,10 @@
         <v>43299</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D17" s="6">
         <v>43299</v>
@@ -1327,7 +1398,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,10 +1406,10 @@
         <v>43299</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D18" s="6">
         <v>43301</v>
@@ -1350,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1358,10 +1429,10 @@
         <v>43300</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="6">
         <v>43300</v>
@@ -1373,7 +1444,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1381,25 +1452,25 @@
         <v>43300</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6">
         <v>43300</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,25 +1478,25 @@
         <v>43300</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="6">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -1433,10 +1504,10 @@
         <v>43300</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6">
         <v>43300</v>
@@ -1448,10 +1519,88 @@
         <v>31</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>43300</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43299</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43300</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43301</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="6">
+        <v>43300</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
